--- a/Functional Requirements/Tables/IO Sheet.xlsx
+++ b/Functional Requirements/Tables/IO Sheet.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Dionysus-PowerDistributionBoard\Functional Requirements\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E8321-74F0-4C87-8CCA-4B31E5BFA4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED2074E-410F-4B68-AFC3-8A0F95E4F39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6776F5B9-847C-4E2A-A8B7-F88442211FA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6776F5B9-847C-4E2A-A8B7-F88442211FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Statistics" sheetId="8" r:id="rId1"/>
-    <sheet name="IO Sheet" sheetId="6" r:id="rId2"/>
-    <sheet name="Controller IO" sheetId="7" r:id="rId3"/>
+    <sheet name="IO Sheet - Board" sheetId="9" r:id="rId2"/>
+    <sheet name="IO Sheet - Controller" sheetId="6" r:id="rId3"/>
+    <sheet name="Controller IO" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Controller IO'!$A$1:$P$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'IO Sheet'!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Controller IO'!$A$1:$P$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'IO Sheet - Board'!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'IO Sheet - Controller'!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="525">
   <si>
     <t>Signal Name</t>
   </si>
@@ -1401,9 +1403,6 @@
     <t>Estop loop - end of loop</t>
   </si>
   <si>
-    <t>DOUT</t>
-  </si>
-  <si>
     <t>AmbTemp</t>
   </si>
   <si>
@@ -1543,6 +1542,72 @@
   </si>
   <si>
     <t>NCS Pump</t>
+  </si>
+  <si>
+    <t>Internal - PMC</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Comm</t>
+  </si>
+  <si>
+    <t>Switch-to-Battery</t>
+  </si>
+  <si>
+    <t>Switch-to-Ground</t>
+  </si>
+  <si>
+    <t>Voltage-to-Digital</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Pulse Width Modulation</t>
+  </si>
+  <si>
+    <t>Two Wire Interface</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>DAC2</t>
+  </si>
+  <si>
+    <t>General purpose analog output pins</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>Terminal block</t>
+  </si>
+  <si>
+    <t>D20/SDA</t>
+  </si>
+  <si>
+    <t>D21/SCL</t>
+  </si>
+  <si>
+    <t>CANRX</t>
+  </si>
+  <si>
+    <t>CANTX</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1645,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1976,11 +2041,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2061,18 +2139,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2102,18 +2168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2126,11 +2180,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -2191,7 +2278,8 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2205,24 +2293,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2542,2287 +2648,2401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F421B5-F65C-472B-BE2E-9126BAAF3C64}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Power", 'IO Sheet - Controller'!D:D, "PWR")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Power", 'IO Sheet - Controller'!D:D, "GND")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Input", 'IO Sheet - Controller'!D:D, "KEYSW")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Input", 'IO Sheet - Controller'!D:D, "STB")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Input", 'IO Sheet - Controller'!D:D, "STG")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Input", 'IO Sheet - Controller'!D:D, "VTD")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Output", 'IO Sheet - Controller'!D:D, "STB")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Output", 'IO Sheet - Controller'!D:D, "STG")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Output", 'IO Sheet - Controller'!D:D, "PWM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIFS('IO Sheet - Controller'!C:C, "Comm", 'IO Sheet - Controller'!D:D, "TWI")</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC01A8C-4530-41DB-9311-E46DA002EADA}">
-  <dimension ref="A1:I106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBADB7D-478C-4AD2-8BC0-3FAB506EF812}">
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="46" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="32" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="H2" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="29" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>381</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="49" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" s="33">
+        <v>2</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="F3" s="35">
+      <c r="I4" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F4" s="37">
-        <v>2</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>382</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>383</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
         <v>384</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
         <v>385</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="E8" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>386</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C11" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="36" t="s">
+      <c r="E11" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="37">
+      <c r="I11" s="1"/>
+      <c r="J11" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="37" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="36" t="s">
+      <c r="E12" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="37">
+      <c r="I12" s="1"/>
+      <c r="J12" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="B11" s="25" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C13" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="36" t="s">
+      <c r="E13" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="37">
+      <c r="I13" s="1"/>
+      <c r="J13" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="37" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36" t="s">
+      <c r="E14" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="37">
+      <c r="I14" s="1"/>
+      <c r="J14" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="B13" s="25" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C15" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36" t="s">
+      <c r="E15" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="37">
+      <c r="I15" s="1"/>
+      <c r="J15" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="37" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="36" t="s">
+      <c r="E16" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="37">
+      <c r="I16" s="1"/>
+      <c r="J16" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="C15" s="37" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>439</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="C18" s="37" t="s">
+      <c r="E19" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>443</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="C19" s="37" t="s">
+      <c r="E20" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>445</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="C20" s="37" t="s">
+      <c r="E21" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
-        <v>446</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>373</v>
+      <c r="E23" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="38" t="s">
+        <v>456</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>374</v>
+        <v>459</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>15</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
-        <v>375</v>
+        <v>466</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
+        <v>6</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="37"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
-        <v>4</v>
+        <v>467</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
+        <v>457</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="37"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
-        <v>25</v>
+        <v>458</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
+        <v>376</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="37"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>33</v>
+        <v>370</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
+        <v>377</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="37"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>56</v>
+        <v>371</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>378</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="37"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>13</v>
+        <v>372</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
+        <v>395</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="37"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
-        <v>17</v>
+        <v>392</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="33"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
+        <v>396</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="37"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
-        <v>34</v>
+        <v>393</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
+        <v>397</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="37"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
-        <v>457</v>
+        <v>394</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
+        <v>410</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="37"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>15</v>
+        <v>413</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>411</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="37"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>6</v>
+        <v>414</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="33"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>412</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="37"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>458</v>
+        <v>415</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>398</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="37"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>376</v>
+        <v>399</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>416</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="C38" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D38" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="37"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
-        <v>377</v>
+      <c r="E38" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>417</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C39" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D39" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="37"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
-        <v>378</v>
+      <c r="E39" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>400</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="C40" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D40" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="37"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
-        <v>395</v>
+      <c r="E40" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>402</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="C41" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="37"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
-        <v>396</v>
+      <c r="E41" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>403</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="C42" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="37"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="s">
-        <v>397</v>
+      <c r="E42" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>405</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C43" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D43" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="37"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="s">
-        <v>410</v>
+      <c r="E43" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
+        <v>407</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="C44" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D44" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="37"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
-        <v>411</v>
+      <c r="E44" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
+        <v>408</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C45" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D45" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="37"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="46" t="s">
-        <v>412</v>
+      <c r="E45" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
+        <v>422</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="C46" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D46" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="37"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="s">
-        <v>398</v>
+      <c r="E46" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="33"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
+        <v>423</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C47" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="37"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
-        <v>416</v>
+      <c r="E47" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="33"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
+        <v>424</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="C48" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D48" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="37"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="46" t="s">
-        <v>417</v>
+      <c r="E48" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="33"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>428</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="C49" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D49" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="37"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="46" t="s">
-        <v>400</v>
+      <c r="E49" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="33"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
+        <v>429</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="C50" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D50" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="37"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="46" t="s">
-        <v>402</v>
+      <c r="E50" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="33"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="38" t="s">
+        <v>430</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C51" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D51" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="37"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="46" t="s">
-        <v>403</v>
+      <c r="E51" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="33"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="37"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="46" t="s">
-        <v>405</v>
+        <v>484</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="33"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="38" t="s">
+        <v>347</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="37"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="s">
-        <v>407</v>
+        <v>484</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="33"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
+        <v>348</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="37"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="46" t="s">
-        <v>408</v>
+        <v>484</v>
+      </c>
+      <c r="C54" s="50"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="33"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
+        <v>349</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="37"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="46" t="s">
-        <v>422</v>
+        <v>484</v>
+      </c>
+      <c r="C55" s="50"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="38" t="s">
+        <v>350</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="37"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="46" t="s">
-        <v>423</v>
+        <v>484</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="38" t="s">
+        <v>351</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="37"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="46" t="s">
-        <v>424</v>
+        <v>484</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>352</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="37"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="46" t="s">
-        <v>428</v>
+        <v>484</v>
+      </c>
+      <c r="C58" s="50"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="33"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="38" t="s">
+        <v>353</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="37"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="46" t="s">
-        <v>429</v>
+        <v>484</v>
+      </c>
+      <c r="C59" s="50"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="33"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="38" t="s">
+        <v>354</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="37"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="46" t="s">
-        <v>430</v>
+        <v>484</v>
+      </c>
+      <c r="C60" s="50"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="33"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="38" t="s">
+        <v>355</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="37"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
-        <v>346</v>
+        <v>484</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="33"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>258</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="37"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="46" t="s">
-        <v>347</v>
+      <c r="C62" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="33"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="37"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="46" t="s">
-        <v>348</v>
+      <c r="C63" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="33"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>256</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="37"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="46" t="s">
-        <v>349</v>
+      <c r="C64" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="33"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
+        <v>246</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="37"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="46" t="s">
-        <v>350</v>
+      <c r="C65" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="33"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="38" t="s">
+        <v>249</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="37"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="46" t="s">
-        <v>351</v>
+      <c r="C66" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="33"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="38" t="s">
+        <v>357</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="37"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="46" t="s">
-        <v>352</v>
+        <v>471</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="33"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="38" t="s">
+        <v>356</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="37"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="46" t="s">
-        <v>353</v>
+        <v>471</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="33"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
+        <v>358</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="37"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="46" t="s">
-        <v>354</v>
+        <v>472</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="33"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="38" t="s">
+        <v>359</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="37"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="46" t="s">
-        <v>355</v>
+        <v>472</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="33"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="38" t="s">
+        <v>473</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="37"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="46" t="s">
-        <v>258</v>
+        <v>475</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="33"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="38" t="s">
+        <v>474</v>
       </c>
       <c r="B72" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D72" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="C72" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="37"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="46" t="s">
-        <v>257</v>
+      <c r="E72" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="33"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="38" t="s">
+        <v>477</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="37"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="46" t="s">
-        <v>256</v>
+        <v>479</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="33"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="38" t="s">
+        <v>478</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="37"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="46" t="s">
-        <v>246</v>
+        <v>479</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="33"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="37"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="s">
-        <v>249</v>
+        <v>470</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="33"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="38" t="s">
+        <v>480</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D76" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H76" s="1"/>
-      <c r="I76" s="37"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="46" t="s">
-        <v>357</v>
+        <v>482</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="33"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="38" t="s">
+        <v>481</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="C77" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D77" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="37"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="46" t="s">
-        <v>356</v>
+      <c r="E77" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="33"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="C78" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D78" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="37"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="46" t="s">
-        <v>358</v>
+      <c r="E78" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="33"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="38" t="s">
+        <v>7</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C79" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="33"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="33"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D81" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="37"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C80" s="37" t="s">
+      <c r="E81" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="33"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="33"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="33"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D84" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="37"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="46" t="s">
-        <v>474</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="C81" s="37" t="s">
+      <c r="E84" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="33"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="33"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="D81" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H81" s="1"/>
-      <c r="I81" s="37"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>487</v>
-      </c>
-      <c r="D82" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H82" s="1"/>
-      <c r="I82" s="37"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="B83" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H83" s="1"/>
-      <c r="I83" s="37"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D84" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="37"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H85" s="1"/>
-      <c r="I85" s="37"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="46" t="s">
-        <v>481</v>
-      </c>
       <c r="B86" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C86" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E86" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="33"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D87" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H86" s="1"/>
-      <c r="I86" s="37"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="46" t="s">
-        <v>482</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C87" s="37" t="s">
+      <c r="E87" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="33"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="33"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="33"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D90" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H87" s="1"/>
-      <c r="I87" s="37"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="37" t="s">
+      <c r="E90" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="33"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="33"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="33"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D93" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H88" s="1"/>
-      <c r="I88" s="37"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="37"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C90" s="37" t="s">
+      <c r="E93" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="33"/>
+    </row>
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="D94" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D90" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H90" s="1"/>
-      <c r="I90" s="37"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="37"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H92" s="1"/>
-      <c r="I92" s="37"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H93" s="1"/>
-      <c r="I93" s="37"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D94" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H94" s="1"/>
-      <c r="I94" s="37"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D95" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H95" s="1"/>
-      <c r="I95" s="37"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H96" s="1"/>
-      <c r="I96" s="37"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H97" s="1"/>
-      <c r="I97" s="37"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="46" t="s">
-        <v>488</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D98" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H98" s="1"/>
-      <c r="I98" s="37"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H99" s="1"/>
-      <c r="I99" s="37"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H100" s="1"/>
-      <c r="I100" s="37"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D101" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H101" s="1"/>
-      <c r="I101" s="37"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H102" s="1"/>
-      <c r="I102" s="37"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H103" s="1"/>
-      <c r="I103" s="37"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="D104" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H104" s="1"/>
-      <c r="I104" s="37"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H105" s="1"/>
-      <c r="I105" s="37"/>
-    </row>
-    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B106" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="D106" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="E106" s="39"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="40"/>
+      <c r="E94" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="I94" s="35"/>
+      <c r="J94" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$C1="PWM"</formula>
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>$D1="PWM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$C1="DOUT"</formula>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>$D1="DOUT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$C1="VTD"</formula>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>$D1="VTD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$C1="STG"</formula>
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>$D1="STG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$C1="STB"</formula>
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$D1="STB"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$C1="KEYSW"</formula>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$D1="KEYSW"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$C1="GND"</formula>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$D1="GND"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$C1="PWR"</formula>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$D1="PWR"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4831,6 +5051,1958 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC01A8C-4530-41DB-9311-E46DA002EADA}">
+  <dimension ref="A1:J75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J31" s="33"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J35" s="33"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="33"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="33"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="33"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="33"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="H50" s="32"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="33"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="33"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="33"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="33"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="33"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="33"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="33"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="33"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="33"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="33"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="33"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="33"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="33"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="33"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="33"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="33"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="33"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="33"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="33"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="33"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="33"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="33"/>
+    </row>
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="F75" s="35"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="I75" s="35"/>
+      <c r="J75" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$D1="PWM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$D1="DOUT"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$D1="VTD"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$D1="STG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$D1="STB"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$D1="KEYSW"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$D1="GND"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>$D1="PWR"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8FE66E-A5B4-4214-995F-EC85EEB88E17}">
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>

--- a/Functional Requirements/Tables/IO Sheet.xlsx
+++ b/Functional Requirements/Tables/IO Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Dionysus-PowerDistributionBoard\Functional Requirements\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED2074E-410F-4B68-AFC3-8A0F95E4F39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02CBB31-ABE2-4E76-9440-846E2BFF71EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6776F5B9-847C-4E2A-A8B7-F88442211FA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{6776F5B9-847C-4E2A-A8B7-F88442211FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Statistics" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="536">
   <si>
     <t>Signal Name</t>
   </si>
@@ -1608,6 +1608,39 @@
   </si>
   <si>
     <t>CANTX</t>
+  </si>
+  <si>
+    <t>Internal - Sys</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>Internal - PWM</t>
+  </si>
+  <si>
+    <t>LED Driver 1</t>
+  </si>
+  <si>
+    <t>LED Driver 2</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>SCL/SDA</t>
+  </si>
+  <si>
+    <t>D0/RX0</t>
+  </si>
+  <si>
+    <t>D1/TX0</t>
   </si>
 </sst>
 </file>
@@ -2180,14 +2213,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2201,17 +2234,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2654,12 +2687,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>504</v>
       </c>
@@ -2668,7 +2701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2677,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -2689,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>510</v>
       </c>
@@ -2698,7 +2731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>511</v>
       </c>
@@ -2707,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>512</v>
       </c>
@@ -2716,7 +2749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>513</v>
       </c>
@@ -2728,7 +2761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>511</v>
       </c>
@@ -2737,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>514</v>
       </c>
@@ -2746,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2768,53 +2801,53 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A73" sqref="A73:B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="23" customWidth="1"/>
     <col min="11" max="11" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="51"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="28" t="s">
         <v>364</v>
       </c>
@@ -2834,14 +2867,14 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>381</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="41" t="s">
         <v>504</v>
       </c>
       <c r="D3" s="31" t="s">
@@ -2862,12 +2895,12 @@
       <c r="I3" s="3"/>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -2892,14 +2925,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>382</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -2912,14 +2945,14 @@
       <c r="I5" s="1"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>383</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -2932,14 +2965,14 @@
       <c r="I6" s="1"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>384</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2952,14 +2985,14 @@
       <c r="I7" s="1"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>385</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -2980,14 +3013,14 @@
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>386</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -3006,12 +3039,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -3030,14 +3063,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>387</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -3056,12 +3089,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -3080,14 +3113,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>388</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -3106,12 +3139,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -3130,14 +3163,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>389</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -3156,12 +3189,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -3180,12 +3213,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>434</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -3202,14 +3235,14 @@
       <c r="I17" s="1"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>373</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -3226,14 +3259,14 @@
       <c r="I18" s="1"/>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>374</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D19" s="33" t="s">
@@ -3250,14 +3283,14 @@
       <c r="I19" s="1"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>375</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -3274,14 +3307,14 @@
       <c r="I20" s="1"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -3298,14 +3331,14 @@
       <c r="I21" s="1"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -3322,14 +3355,14 @@
       <c r="I22" s="1"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -3346,14 +3379,14 @@
       <c r="I23" s="1"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>456</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -3370,14 +3403,14 @@
       <c r="I24" s="1"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -3394,14 +3427,14 @@
       <c r="I25" s="1"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -3418,14 +3451,14 @@
       <c r="I26" s="1"/>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>457</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D27" s="33" t="s">
@@ -3442,14 +3475,14 @@
       <c r="I27" s="1"/>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>376</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -3466,14 +3499,14 @@
       <c r="I28" s="1"/>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>377</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D29" s="33" t="s">
@@ -3490,14 +3523,14 @@
       <c r="I29" s="1"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
         <v>378</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D30" s="33" t="s">
@@ -3514,14 +3547,14 @@
       <c r="I30" s="1"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>395</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D31" s="33" t="s">
@@ -3538,14 +3571,14 @@
       <c r="I31" s="1"/>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>396</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D32" s="33" t="s">
@@ -3562,14 +3595,14 @@
       <c r="I32" s="1"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>397</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D33" s="33" t="s">
@@ -3586,14 +3619,14 @@
       <c r="I33" s="1"/>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>410</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D34" s="33" t="s">
@@ -3610,14 +3643,14 @@
       <c r="I34" s="1"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>411</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D35" s="33" t="s">
@@ -3634,14 +3667,14 @@
       <c r="I35" s="1"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>412</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D36" s="33" t="s">
@@ -3658,14 +3691,14 @@
       <c r="I36" s="1"/>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>398</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -3682,14 +3715,14 @@
       <c r="I37" s="1"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>416</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D38" s="33" t="s">
@@ -3706,14 +3739,14 @@
       <c r="I38" s="1"/>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>417</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D39" s="33" t="s">
@@ -3730,14 +3763,14 @@
       <c r="I39" s="1"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>400</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D40" s="33" t="s">
@@ -3754,14 +3787,14 @@
       <c r="I40" s="1"/>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>402</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D41" s="33" t="s">
@@ -3778,14 +3811,14 @@
       <c r="I41" s="1"/>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>403</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -3802,14 +3835,14 @@
       <c r="I42" s="1"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>405</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D43" s="33" t="s">
@@ -3826,14 +3859,14 @@
       <c r="I43" s="1"/>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>407</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -3850,14 +3883,14 @@
       <c r="I44" s="1"/>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>408</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -3874,14 +3907,14 @@
       <c r="I45" s="1"/>
       <c r="J45" s="33"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>422</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D46" s="33" t="s">
@@ -3898,14 +3931,14 @@
       <c r="I46" s="1"/>
       <c r="J46" s="33"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>423</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D47" s="33" t="s">
@@ -3922,14 +3955,14 @@
       <c r="I47" s="1"/>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>424</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -3946,14 +3979,14 @@
       <c r="I48" s="1"/>
       <c r="J48" s="33"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>428</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D49" s="33" t="s">
@@ -3970,14 +4003,14 @@
       <c r="I49" s="1"/>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>429</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D50" s="33" t="s">
@@ -3994,14 +4027,14 @@
       <c r="I50" s="1"/>
       <c r="J50" s="33"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>430</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D51" s="33" t="s">
@@ -4018,14 +4051,14 @@
       <c r="I51" s="1"/>
       <c r="J51" s="33"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>346</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C52" s="50"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32" t="s">
         <v>379</v>
@@ -4038,14 +4071,14 @@
       <c r="I52" s="1"/>
       <c r="J52" s="33"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>347</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C53" s="50"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32" t="s">
         <v>379</v>
@@ -4058,14 +4091,14 @@
       <c r="I53" s="1"/>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>348</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C54" s="50"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32" t="s">
         <v>379</v>
@@ -4078,14 +4111,14 @@
       <c r="I54" s="1"/>
       <c r="J54" s="33"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
         <v>349</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C55" s="50"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32" t="s">
         <v>379</v>
@@ -4098,14 +4131,14 @@
       <c r="I55" s="1"/>
       <c r="J55" s="33"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
         <v>350</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C56" s="50"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32" t="s">
         <v>379</v>
@@ -4118,14 +4151,14 @@
       <c r="I56" s="1"/>
       <c r="J56" s="33"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
         <v>351</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C57" s="50"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="33"/>
       <c r="E57" s="32" t="s">
         <v>379</v>
@@ -4138,14 +4171,14 @@
       <c r="I57" s="1"/>
       <c r="J57" s="33"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
         <v>352</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="33"/>
       <c r="E58" s="32" t="s">
         <v>379</v>
@@ -4158,14 +4191,14 @@
       <c r="I58" s="1"/>
       <c r="J58" s="33"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
         <v>353</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C59" s="50"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="33"/>
       <c r="E59" s="32" t="s">
         <v>379</v>
@@ -4178,14 +4211,14 @@
       <c r="I59" s="1"/>
       <c r="J59" s="33"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
         <v>354</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C60" s="50"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="33"/>
       <c r="E60" s="32" t="s">
         <v>379</v>
@@ -4198,14 +4231,14 @@
       <c r="I60" s="1"/>
       <c r="J60" s="33"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
         <v>355</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C61" s="50"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="33"/>
       <c r="E61" s="32" t="s">
         <v>379</v>
@@ -4218,14 +4251,14 @@
       <c r="I61" s="1"/>
       <c r="J61" s="33"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
         <v>258</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D62" s="33" t="s">
@@ -4242,14 +4275,14 @@
       <c r="I62" s="1"/>
       <c r="J62" s="33"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>257</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D63" s="33" t="s">
@@ -4266,14 +4299,14 @@
       <c r="I63" s="1"/>
       <c r="J63" s="33"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
         <v>256</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D64" s="33" t="s">
@@ -4290,14 +4323,14 @@
       <c r="I64" s="1"/>
       <c r="J64" s="33"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
         <v>246</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D65" s="33" t="s">
@@ -4314,14 +4347,14 @@
       <c r="I65" s="1"/>
       <c r="J65" s="33"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C66" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D66" s="33" t="s">
@@ -4338,14 +4371,14 @@
       <c r="I66" s="1"/>
       <c r="J66" s="33"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
         <v>357</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C67" s="50" t="s">
+      <c r="C67" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D67" s="33" t="s">
@@ -4362,14 +4395,14 @@
       <c r="I67" s="1"/>
       <c r="J67" s="33"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
         <v>356</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D68" s="33" t="s">
@@ -4386,14 +4419,14 @@
       <c r="I68" s="1"/>
       <c r="J68" s="33"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
         <v>358</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="C69" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D69" s="33" t="s">
@@ -4410,14 +4443,14 @@
       <c r="I69" s="1"/>
       <c r="J69" s="33"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
         <v>359</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4434,14 +4467,14 @@
       <c r="I70" s="1"/>
       <c r="J70" s="33"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
         <v>473</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D71" s="33" t="s">
@@ -4458,14 +4491,14 @@
       <c r="I71" s="1"/>
       <c r="J71" s="33"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
         <v>474</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D72" s="33" t="s">
@@ -4482,14 +4515,14 @@
       <c r="I72" s="1"/>
       <c r="J72" s="33"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
         <v>477</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D73" s="33" t="s">
@@ -4506,14 +4539,14 @@
       <c r="I73" s="1"/>
       <c r="J73" s="33"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
         <v>478</v>
       </c>
       <c r="B74" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D74" s="33" t="s">
@@ -4530,14 +4563,14 @@
       <c r="I74" s="1"/>
       <c r="J74" s="33"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D75" s="33" t="s">
@@ -4554,14 +4587,14 @@
       <c r="I75" s="1"/>
       <c r="J75" s="33"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>480</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D76" s="33" t="s">
@@ -4578,14 +4611,14 @@
       <c r="I76" s="1"/>
       <c r="J76" s="33"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>481</v>
       </c>
       <c r="B77" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D77" s="33" t="s">
@@ -4602,14 +4635,14 @@
       <c r="I77" s="1"/>
       <c r="J77" s="33"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B78" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D78" s="33" t="s">
@@ -4626,14 +4659,14 @@
       <c r="I78" s="1"/>
       <c r="J78" s="33"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B79" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="50" t="s">
+      <c r="C79" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D79" s="33" t="s">
@@ -4650,14 +4683,14 @@
       <c r="I79" s="1"/>
       <c r="J79" s="33"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="C80" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D80" s="33" t="s">
@@ -4674,14 +4707,14 @@
       <c r="I80" s="1"/>
       <c r="J80" s="33"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D81" s="33" t="s">
@@ -4698,14 +4731,14 @@
       <c r="I81" s="1"/>
       <c r="J81" s="33"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="50" t="s">
+      <c r="C82" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D82" s="33" t="s">
@@ -4722,14 +4755,14 @@
       <c r="I82" s="1"/>
       <c r="J82" s="33"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D83" s="33" t="s">
@@ -4746,14 +4779,14 @@
       <c r="I83" s="1"/>
       <c r="J83" s="33"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B84" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D84" s="33" t="s">
@@ -4770,14 +4803,14 @@
       <c r="I84" s="1"/>
       <c r="J84" s="33"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B85" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D85" s="33" t="s">
@@ -4794,14 +4827,14 @@
       <c r="I85" s="1"/>
       <c r="J85" s="33"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>487</v>
       </c>
       <c r="B86" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D86" s="33" t="s">
@@ -4818,14 +4851,14 @@
       <c r="I86" s="1"/>
       <c r="J86" s="33"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B87" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D87" s="33" t="s">
@@ -4842,14 +4875,14 @@
       <c r="I87" s="1"/>
       <c r="J87" s="33"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B88" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D88" s="33" t="s">
@@ -4866,14 +4899,14 @@
       <c r="I88" s="1"/>
       <c r="J88" s="33"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D89" s="33" t="s">
@@ -4890,14 +4923,14 @@
       <c r="I89" s="1"/>
       <c r="J89" s="33"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B90" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="50" t="s">
+      <c r="C90" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D90" s="33" t="s">
@@ -4914,14 +4947,14 @@
       <c r="I90" s="1"/>
       <c r="J90" s="33"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B91" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D91" s="33" t="s">
@@ -4938,14 +4971,14 @@
       <c r="I91" s="1"/>
       <c r="J91" s="33"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="50" t="s">
+      <c r="C92" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -4962,14 +4995,14 @@
       <c r="I92" s="1"/>
       <c r="J92" s="33"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B93" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C93" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D93" s="33" t="s">
@@ -4986,14 +5019,14 @@
       <c r="I93" s="1"/>
       <c r="J93" s="33"/>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B94" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="43" t="s">
         <v>507</v>
       </c>
       <c r="D94" s="36" t="s">
@@ -5012,12 +5045,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="expression" dxfId="15" priority="1">
@@ -5052,56 +5085,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC01A8C-4530-41DB-9311-E46DA002EADA}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="28" t="s">
         <v>364</v>
       </c>
@@ -5121,76 +5154,76 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>385</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>390</v>
       </c>
       <c r="E3" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="H3" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="H4" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>439</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -5208,17 +5241,21 @@
       <c r="H5" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>443</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -5236,17 +5273,21 @@
       <c r="H6" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>445</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -5255,22 +5296,30 @@
       <c r="E7" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>249</v>
+      </c>
       <c r="H7" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>446</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -5279,22 +5328,30 @@
       <c r="E8" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="H8" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>447</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -5303,22 +5360,30 @@
       <c r="E9" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>247</v>
+      </c>
       <c r="H9" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>448</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -5327,22 +5392,30 @@
       <c r="E10" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>263</v>
+      </c>
       <c r="H10" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>373</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -5351,46 +5424,54 @@
       <c r="E11" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>374</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>390</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>525</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>375</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -5399,22 +5480,26 @@
       <c r="E13" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -5423,22 +5508,26 @@
       <c r="E14" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -5447,22 +5536,26 @@
       <c r="E15" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -5471,22 +5564,26 @@
       <c r="E16" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -5495,22 +5592,26 @@
       <c r="E17" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -5519,22 +5620,26 @@
       <c r="E18" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D19" s="33" t="s">
@@ -5543,22 +5648,26 @@
       <c r="E19" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -5567,22 +5676,26 @@
       <c r="E20" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>456</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -5591,22 +5704,26 @@
       <c r="E21" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -5615,22 +5732,26 @@
       <c r="E22" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -5639,22 +5760,26 @@
       <c r="E23" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>457</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -5663,70 +5788,90 @@
       <c r="E24" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
-        <v>376</v>
+        <v>531</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="C25" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="33"/>
+        <v>379</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="H25" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
-        <v>377</v>
+        <v>532</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C26" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="33"/>
+        <v>379</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="H26" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="33"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>346</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32" t="s">
         <v>379</v>
@@ -5745,14 +5890,14 @@
       </c>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>347</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32" t="s">
         <v>379</v>
@@ -5771,14 +5916,14 @@
       </c>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>348</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32" t="s">
         <v>379</v>
@@ -5797,14 +5942,14 @@
       </c>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
         <v>349</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32" t="s">
         <v>379</v>
@@ -5823,14 +5968,14 @@
       </c>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>350</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32" t="s">
         <v>379</v>
@@ -5849,14 +5994,14 @@
       </c>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>351</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C32" s="50"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32" t="s">
         <v>379</v>
@@ -5875,14 +6020,14 @@
       </c>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>352</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32" t="s">
         <v>379</v>
@@ -5901,14 +6046,14 @@
       </c>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>353</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32" t="s">
         <v>379</v>
@@ -5927,14 +6072,14 @@
       </c>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>354</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32" t="s">
         <v>379</v>
@@ -5953,14 +6098,14 @@
       </c>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>355</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32" t="s">
         <v>379</v>
@@ -5979,164 +6124,164 @@
       </c>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>258</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>453</v>
       </c>
       <c r="E37" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J37" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>257</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>453</v>
       </c>
       <c r="E38" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>256</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>453</v>
       </c>
       <c r="E39" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>246</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>453</v>
       </c>
       <c r="E40" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D41" s="33" t="s">
         <v>453</v>
       </c>
       <c r="E41" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -6152,21 +6297,21 @@
         <v>196</v>
       </c>
       <c r="H42" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>517</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="42" t="s">
         <v>508</v>
       </c>
       <c r="D43" s="33" t="s">
@@ -6182,21 +6327,21 @@
         <v>517</v>
       </c>
       <c r="H43" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>357</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -6205,7 +6350,9 @@
       <c r="E44" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="G44" s="33" t="s">
         <v>522</v>
       </c>
@@ -6215,14 +6362,14 @@
       <c r="I44" s="1"/>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>356</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -6231,7 +6378,9 @@
       <c r="E45" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="G45" s="33" t="s">
         <v>521</v>
       </c>
@@ -6241,14 +6390,14 @@
       <c r="I45" s="1"/>
       <c r="J45" s="33"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>358</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D46" s="33" t="s">
@@ -6257,7 +6406,9 @@
       <c r="E46" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="G46" s="33" t="s">
         <v>181</v>
       </c>
@@ -6267,14 +6418,14 @@
       <c r="I46" s="1"/>
       <c r="J46" s="33"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>359</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D47" s="33" t="s">
@@ -6283,7 +6434,9 @@
       <c r="E47" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="G47" s="33" t="s">
         <v>180</v>
       </c>
@@ -6293,14 +6446,14 @@
       <c r="I47" s="1"/>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>473</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -6309,22 +6462,26 @@
       <c r="E48" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="33"/>
+      <c r="F48" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>534</v>
+      </c>
       <c r="H48" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="33"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>474</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D49" s="33" t="s">
@@ -6333,20 +6490,24 @@
       <c r="E49" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="33"/>
+      <c r="F49" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>535</v>
+      </c>
       <c r="H49" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>523</v>
       </c>
       <c r="B50" s="25"/>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D50" s="33" t="s">
@@ -6365,12 +6526,12 @@
       <c r="I50" s="1"/>
       <c r="J50" s="33"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>524</v>
       </c>
       <c r="B51" s="25"/>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D51" s="33" t="s">
@@ -6389,82 +6550,98 @@
       <c r="I51" s="1"/>
       <c r="J51" s="33"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
-        <v>477</v>
+        <v>32</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="C52" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="C52" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="32"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>317</v>
+      </c>
       <c r="H52" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="33"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="C53" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="C53" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="33"/>
+        <v>19</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="H53" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>32</v>
+        <v>481</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="C54" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E54" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="33"/>
+      <c r="F54" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="H54" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="33"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="C55" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D55" s="33" t="s">
@@ -6473,94 +6650,110 @@
       <c r="E55" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="33"/>
+      <c r="F55" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="H55" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="33"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
-        <v>481</v>
+        <v>5</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C56" s="50" t="s">
-        <v>509</v>
+        <v>38</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>508</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="33"/>
+      <c r="F56" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>333</v>
+      </c>
       <c r="H56" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="33"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>509</v>
+        <v>50</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>507</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="E57" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="33"/>
+      <c r="F57" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>334</v>
+      </c>
       <c r="H57" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="33"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>508</v>
+        <v>39</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>509</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>391</v>
+        <v>32</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="33"/>
+      <c r="F58" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>317</v>
+      </c>
       <c r="H58" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="33"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D59" s="33" t="s">
@@ -6569,31 +6762,37 @@
       <c r="E59" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="33"/>
+      <c r="F59" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>336</v>
+      </c>
       <c r="H59" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="33"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="42" t="s">
         <v>509</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E60" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="G60" s="33"/>
       <c r="H60" s="32" t="s">
         <v>380</v>
@@ -6601,14 +6800,14 @@
       <c r="I60" s="1"/>
       <c r="J60" s="33"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D61" s="33" t="s">
@@ -6617,70 +6816,82 @@
       <c r="E61" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="33"/>
+      <c r="F61" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>335</v>
+      </c>
       <c r="H61" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="33"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>509</v>
+        <v>40</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>507</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="E62" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="33"/>
+      <c r="F62" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>329</v>
+      </c>
       <c r="H62" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="33"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="50" t="s">
-        <v>507</v>
+        <v>49</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>509</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="E63" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="33"/>
+      <c r="F63" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="H63" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="33"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D64" s="33" t="s">
@@ -6689,70 +6900,82 @@
       <c r="E64" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="33"/>
+      <c r="F64" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>328</v>
+      </c>
       <c r="H64" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="33"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
-        <v>23</v>
+        <v>487</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="50" t="s">
-        <v>509</v>
+        <v>488</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>507</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="E65" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="33"/>
+      <c r="F65" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>327</v>
+      </c>
       <c r="H65" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="33"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>507</v>
+        <v>48</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>509</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="E66" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="33"/>
+      <c r="F66" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="H66" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="33"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
-        <v>487</v>
+        <v>31</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="C67" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D67" s="33" t="s">
@@ -6761,70 +6984,82 @@
       <c r="E67" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="33"/>
+      <c r="F67" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>326</v>
+      </c>
       <c r="H67" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="33"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="50" t="s">
-        <v>509</v>
+        <v>42</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>507</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="E68" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="33"/>
+      <c r="F68" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>325</v>
+      </c>
       <c r="H68" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="33"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="50" t="s">
-        <v>507</v>
+        <v>46</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>509</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="E69" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="33"/>
+      <c r="F69" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="H69" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="33"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -6833,133 +7068,101 @@
       <c r="E70" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="33"/>
+      <c r="F70" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>324</v>
+      </c>
       <c r="H70" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="33"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="50" t="s">
-        <v>509</v>
+        <v>43</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>507</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="E71" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="33"/>
+      <c r="F71" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>343</v>
+      </c>
       <c r="H71" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="33"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="50" t="s">
-        <v>507</v>
+        <v>45</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>509</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="E72" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="33"/>
+      <c r="F72" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="H72" s="32" t="s">
         <v>380</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="33"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="50" t="s">
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="43" t="s">
         <v>507</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="E73" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="33"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="50" t="s">
-        <v>509</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="33"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>507</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="F75" s="35"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="36"/>
+      <c r="E73" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="I73" s="35"/>
+      <c r="J73" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7014,22 +7217,22 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16" style="14" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="20" customWidth="1"/>
-    <col min="10" max="14" width="15.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" style="21" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="20" customWidth="1"/>
+    <col min="10" max="14" width="15.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="22" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="22" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>275</v>
       </c>
@@ -7079,7 +7282,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
@@ -7117,7 +7320,7 @@
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>82</v>
       </c>
@@ -7148,7 +7351,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>249</v>
       </c>
@@ -7179,7 +7382,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>108</v>
       </c>
@@ -7207,7 +7410,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -7238,7 +7441,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
@@ -7266,7 +7469,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>80</v>
       </c>
@@ -7294,7 +7497,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
@@ -7322,7 +7525,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
@@ -7350,7 +7553,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>258</v>
       </c>
@@ -7387,7 +7590,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>257</v>
       </c>
@@ -7418,7 +7621,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>256</v>
       </c>
@@ -7449,7 +7652,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>246</v>
       </c>
@@ -7480,7 +7683,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>164</v>
       </c>
@@ -7514,7 +7717,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>163</v>
       </c>
@@ -7545,7 +7748,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>102</v>
       </c>
@@ -7573,7 +7776,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
@@ -7607,7 +7810,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
@@ -7638,7 +7841,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
@@ -7654,7 +7857,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
@@ -7670,7 +7873,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>84</v>
       </c>
@@ -7686,7 +7889,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>110</v>
       </c>
@@ -7702,7 +7905,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>112</v>
       </c>
@@ -7718,7 +7921,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>130</v>
       </c>
@@ -7734,7 +7937,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>131</v>
       </c>
@@ -7750,7 +7953,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>140</v>
       </c>
@@ -7766,7 +7969,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>147</v>
       </c>
@@ -7782,7 +7985,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
@@ -7813,7 +8016,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>4</v>
       </c>
@@ -7838,7 +8041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>33</v>
       </c>
@@ -7866,7 +8069,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>10</v>
       </c>
@@ -7891,7 +8094,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>29</v>
       </c>
@@ -7916,7 +8119,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>8</v>
       </c>
@@ -7941,7 +8144,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>30</v>
       </c>
@@ -7966,7 +8169,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>31</v>
       </c>
@@ -7991,7 +8194,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>11</v>
       </c>
@@ -8016,7 +8219,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>28</v>
       </c>
@@ -8044,7 +8247,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>12</v>
       </c>
@@ -8066,7 +8269,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>27</v>
       </c>
@@ -8088,7 +8291,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>363</v>
       </c>
@@ -8113,7 +8316,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>17</v>
       </c>
@@ -8138,7 +8341,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>25</v>
       </c>
@@ -8163,7 +8366,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>26</v>
       </c>
@@ -8188,7 +8391,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>56</v>
       </c>
@@ -8213,7 +8416,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>362</v>
       </c>
@@ -8238,7 +8441,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>346</v>
       </c>
@@ -8263,7 +8466,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>347</v>
       </c>
@@ -8288,7 +8491,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>348</v>
       </c>
@@ -8313,7 +8516,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>349</v>
       </c>
@@ -8338,7 +8541,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>350</v>
       </c>
@@ -8363,7 +8566,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>351</v>
       </c>
@@ -8388,7 +8591,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>352</v>
       </c>
@@ -8413,7 +8616,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>353</v>
       </c>
@@ -8438,7 +8641,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>354</v>
       </c>
@@ -8463,7 +8666,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>355</v>
       </c>
@@ -8488,7 +8691,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>9</v>
       </c>
@@ -8516,7 +8719,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>14</v>
       </c>
@@ -8544,7 +8747,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>158</v>
       </c>
@@ -8566,7 +8769,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>159</v>
       </c>
@@ -8588,7 +8791,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>115</v>
       </c>
@@ -8619,7 +8822,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>113</v>
       </c>
@@ -8644,7 +8847,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>148</v>
       </c>
@@ -8666,7 +8869,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>145</v>
       </c>
@@ -8688,7 +8891,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>144</v>
       </c>
@@ -8710,7 +8913,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>143</v>
       </c>
@@ -8732,7 +8935,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>142</v>
       </c>
@@ -8754,7 +8957,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>141</v>
       </c>
@@ -8776,7 +8979,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>360</v>
       </c>
@@ -8810,7 +9013,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
@@ -8838,7 +9041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
@@ -8869,7 +9072,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>156</v>
       </c>
@@ -8894,7 +9097,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>150</v>
       </c>
@@ -8913,7 +9116,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>358</v>
       </c>
@@ -8941,7 +9144,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>357</v>
       </c>
@@ -8975,7 +9178,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>359</v>
       </c>
@@ -9003,7 +9206,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>356</v>
       </c>
@@ -9037,7 +9240,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>85</v>
       </c>
@@ -9053,7 +9256,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>86</v>
       </c>
@@ -9081,7 +9284,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>149</v>
       </c>
@@ -9097,7 +9300,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>87</v>
       </c>
@@ -9119,7 +9322,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>146</v>
       </c>
@@ -9135,7 +9338,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>361</v>
       </c>
@@ -9166,7 +9369,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>69</v>
       </c>
@@ -9194,7 +9397,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>71</v>
       </c>
@@ -9222,7 +9425,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>155</v>
       </c>
@@ -9247,7 +9450,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>79</v>
       </c>
@@ -9266,7 +9469,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
@@ -9279,7 +9482,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
@@ -9292,7 +9495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>98</v>
       </c>
@@ -9305,7 +9508,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>99</v>
       </c>
@@ -9318,7 +9521,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
@@ -9331,7 +9534,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>111</v>
       </c>
@@ -9344,7 +9547,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>116</v>
       </c>
@@ -9357,7 +9560,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>117</v>
       </c>
@@ -9370,7 +9573,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>91</v>
       </c>
@@ -9383,7 +9586,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>118</v>
       </c>
@@ -9396,7 +9599,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
@@ -9409,7 +9612,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>92</v>
       </c>
@@ -9422,7 +9625,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>93</v>
       </c>
@@ -9435,7 +9638,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>94</v>
       </c>
@@ -9448,7 +9651,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>95</v>
       </c>
@@ -9461,7 +9664,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>96</v>
       </c>
@@ -9474,7 +9677,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>97</v>
       </c>
@@ -9487,7 +9690,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>120</v>
       </c>

--- a/Functional Requirements/Tables/IO Sheet.xlsx
+++ b/Functional Requirements/Tables/IO Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Dionysus-PowerDistributionBoard\Functional Requirements\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475C6DDA-8FD5-496B-ACD8-1285101D3B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE93BCF-F4A9-4FFB-AA39-F78EB3BCB973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{6776F5B9-847C-4E2A-A8B7-F88442211FA1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="557">
   <si>
     <t>Signal Name</t>
   </si>
@@ -87,9 +87,6 @@
     <t>PWM</t>
   </si>
   <si>
-    <t>TWI</t>
-  </si>
-  <si>
     <t>RsvrPmpActFdbk</t>
   </si>
   <si>
@@ -1446,9 +1443,6 @@
     <t>TB1</t>
   </si>
   <si>
-    <t>Internal</t>
-  </si>
-  <si>
     <t>Reservoir pump power</t>
   </si>
   <si>
@@ -1639,6 +1633,75 @@
   </si>
   <si>
     <t>TB18</t>
+  </si>
+  <si>
+    <t>Internal - PMC</t>
+  </si>
+  <si>
+    <t>Internal - LED Ctrl</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>AmbEnv - TWCK</t>
+  </si>
+  <si>
+    <t>AmbEnv - TWD</t>
+  </si>
+  <si>
+    <t>Internal - Sys</t>
+  </si>
+  <si>
+    <t>D0/RX0</t>
+  </si>
+  <si>
+    <t>D1/TX0</t>
+  </si>
+  <si>
+    <t>D21/SCL</t>
+  </si>
+  <si>
+    <t>D20/SDA</t>
+  </si>
+  <si>
+    <t>CANRX</t>
+  </si>
+  <si>
+    <t>NCS - TWCK</t>
+  </si>
+  <si>
+    <t>NCS - TWD</t>
+  </si>
+  <si>
+    <t>CANTX</t>
+  </si>
+  <si>
+    <t>Internal - GPIO</t>
+  </si>
+  <si>
+    <t>CAN bus</t>
+  </si>
+  <si>
+    <t>D14/TX3</t>
+  </si>
+  <si>
+    <t>D15/RX3</t>
+  </si>
+  <si>
+    <t>D16/TX2</t>
+  </si>
+  <si>
+    <t>D17/RX2</t>
+  </si>
+  <si>
+    <t>D18/TX1</t>
+  </si>
+  <si>
+    <t>D19/RX1</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2168,15 +2231,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="31">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2217,12 +2308,26 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2263,12 +2368,26 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2297,149 +2416,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF646464"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF646464"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2451,173 +2435,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF646464"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF646464"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF646464"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2993,7 +2816,7 @@
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,28 +2826,28 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C2" t="e">
-        <f>COUNTIFS(#REF!, "Power",#REF!, "PWR")</f>
-        <v>#REF!</v>
+        <v>479</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIFS('IO Sheet'!C:C, "Power", 'IO Sheet'!D:D, "PWR")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="e">
-        <f>COUNTIFS(#REF!, "Power",#REF!, "GND")</f>
-        <v>#REF!</v>
+      <c r="C3" s="48">
+        <f>COUNTIFS('IO Sheet'!C:C,"Power",'IO Sheet'!D:D,"GND")</f>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" t="e">
         <f>COUNTIFS(#REF!, "Input",#REF!, "KEYSW")</f>
@@ -3033,7 +2856,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C6" t="e">
         <f>COUNTIFS(#REF!, "Input",#REF!, "STB")</f>
@@ -3042,7 +2865,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C7" t="e">
         <f>COUNTIFS(#REF!, "Input",#REF!, "STG")</f>
@@ -3051,7 +2874,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C8" t="e">
         <f>COUNTIFS(#REF!, "Input",#REF!, "VTD")</f>
@@ -3060,10 +2883,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C10" t="e">
         <f>COUNTIFS(#REF!, "Output",#REF!, "STB")</f>
@@ -3072,7 +2895,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C11" t="e">
         <f>COUNTIFS(#REF!, "Output",#REF!, "STG")</f>
@@ -3081,7 +2904,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C12" t="e">
         <f>COUNTIFS(#REF!, "Output",#REF!, "PWM")</f>
@@ -3093,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C14" t="e">
         <f>COUNTIFS(#REF!, "Comm",#REF!, "TWI")</f>
@@ -3107,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBADB7D-478C-4AD2-8BC0-3FAB506EF812}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,7 +2944,7 @@
     <col min="4" max="4" width="9.85546875" style="23" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" style="23" customWidth="1"/>
@@ -3133,21 +2956,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="40"/>
       <c r="H1" s="38" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I1" s="39"/>
       <c r="J1" s="40"/>
@@ -3158,49 +2981,51 @@
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>355</v>
-      </c>
       <c r="J2" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>367</v>
+        <v>534</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G3" s="31"/>
+        <v>536</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>536</v>
+      </c>
       <c r="H3" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J3" s="31">
         <v>1</v>
@@ -3212,19 +3037,25 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="33"/>
+      <c r="E4" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H4" s="32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J4" s="33">
         <v>2</v>
@@ -3232,27 +3063,29 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>367</v>
+        <v>534</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G5" s="33"/>
+        <v>536</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H5" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J5" s="33">
         <v>1</v>
@@ -3260,27 +3093,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="33"/>
+        <v>540</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H6" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J6" s="33">
         <v>2</v>
@@ -3288,29 +3125,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G7" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>317</v>
+      </c>
       <c r="H7" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J7" s="33">
         <v>3</v>
@@ -3318,29 +3157,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G8" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>280</v>
+      </c>
       <c r="H8" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J8" s="33">
         <v>4</v>
@@ -3348,29 +3189,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="E9" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="H9" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="32" t="s">
-        <v>501</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J9" s="33">
         <v>5</v>
@@ -3378,29 +3221,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>445</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>18</v>
+        <v>437</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G10" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>251</v>
+      </c>
       <c r="H10" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J10" s="33">
         <v>1</v>
@@ -3408,29 +3253,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G11" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="H11" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J11" s="33">
         <v>2</v>
@@ -3438,29 +3285,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>13</v>
+        <v>440</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>484</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G12" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="H12" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J12" s="33">
         <v>3</v>
@@ -3468,29 +3317,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>441</v>
+        <v>15</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G13" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="H13" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J13" s="33">
         <v>4</v>
@@ -3498,29 +3349,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>451</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G14" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="H14" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J14" s="33">
         <v>5</v>
@@ -3528,29 +3381,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>6</v>
+        <v>441</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G15" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="H15" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J15" s="33">
         <v>6</v>
@@ -3558,79 +3413,95 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>26</v>
+        <v>504</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G16" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>264</v>
+      </c>
       <c r="H16" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J16" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J17" s="33">
+    <row r="17" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>539</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="J17" s="53">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="25"/>
+        <v>368</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>425</v>
+      </c>
       <c r="C18" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="33"/>
+        <v>376</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H18" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J18" s="33">
         <v>9</v>
@@ -3638,670 +3509,752 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>472</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B19" s="25"/>
       <c r="C19" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H19" s="32" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J19" s="33">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="25"/>
+        <v>372</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>470</v>
+      </c>
       <c r="C20" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D20" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J20" s="33">
         <v>1</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="J20" s="33">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>473</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B21" s="25"/>
       <c r="C21" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H21" s="32" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J21" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="25"/>
+        <v>373</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>471</v>
+      </c>
       <c r="C22" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D22" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J22" s="33">
         <v>1</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="J22" s="33">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>35</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B23" s="25"/>
       <c r="C23" s="37" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>367</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>534</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H23" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="32" t="s">
-        <v>509</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="J23" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G24" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>323</v>
+      </c>
       <c r="H24" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J24" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G25" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>322</v>
+      </c>
       <c r="H25" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J25" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G26" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>316</v>
+      </c>
       <c r="H26" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J26" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>468</v>
+        <v>23</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>469</v>
+        <v>41</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G27" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>315</v>
+      </c>
       <c r="H27" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J27" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>25</v>
+        <v>467</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>43</v>
+        <v>468</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G28" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>314</v>
+      </c>
       <c r="H28" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J28" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G29" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>313</v>
+      </c>
       <c r="H29" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J29" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G30" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>312</v>
+      </c>
       <c r="H30" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J30" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G31" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>311</v>
+      </c>
       <c r="H31" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J31" s="33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G32" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>330</v>
+      </c>
       <c r="H32" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J32" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G33" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>331</v>
+      </c>
       <c r="H33" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J33" s="33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>506</v>
+        <v>7</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="J34" s="33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="I35" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>507</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="J35" s="33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>371</v>
+        <v>547</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>426</v>
+        <v>506</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="33"/>
+        <v>505</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>266</v>
+      </c>
       <c r="H36" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J36" s="33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="25"/>
+        <v>370</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>425</v>
+      </c>
       <c r="C37" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="33"/>
+        <v>376</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H37" s="32" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J37" s="33">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>475</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B38" s="25"/>
       <c r="C38" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H38" s="32" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J38" s="33">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="25"/>
+        <v>375</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>473</v>
+      </c>
       <c r="C39" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D39" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J39" s="33">
         <v>1</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J39" s="33">
-        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="32" t="s">
-        <v>367</v>
+        <v>3</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>534</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G40" s="33"/>
+        <v>536</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H40" s="32" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J40" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G41" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>284</v>
+      </c>
       <c r="H41" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J41" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G42" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>279</v>
+      </c>
       <c r="H42" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J42" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4309,25 +4262,27 @@
         <v>279</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G43" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>278</v>
+      </c>
       <c r="H43" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J43" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -4335,25 +4290,27 @@
         <v>278</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G44" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>277</v>
+      </c>
       <c r="H44" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J44" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -4361,25 +4318,27 @@
         <v>277</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G45" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>276</v>
+      </c>
       <c r="H45" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J45" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -4387,25 +4346,27 @@
         <v>276</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G46" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>275</v>
+      </c>
       <c r="H46" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J46" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -4413,25 +4374,27 @@
         <v>275</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G47" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>274</v>
+      </c>
       <c r="H47" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J47" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -4439,25 +4402,27 @@
         <v>274</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G48" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>273</v>
+      </c>
       <c r="H48" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J48" s="33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -4465,105 +4430,117 @@
         <v>273</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G49" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>272</v>
+      </c>
       <c r="H49" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J49" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="33"/>
+        <v>464</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>269</v>
+      </c>
       <c r="H50" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J50" s="33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="25"/>
+        <v>369</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>425</v>
+      </c>
       <c r="C51" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="33"/>
+        <v>376</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H51" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J51" s="33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>466</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B52" s="25"/>
       <c r="C52" s="37" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>367</v>
+        <v>1</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>534</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G52" s="33"/>
+        <v>536</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H52" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="J52" s="33">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -4571,29 +4548,31 @@
         <v>245</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G53" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>242</v>
+      </c>
       <c r="H53" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J53" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -4601,229 +4580,253 @@
         <v>244</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G54" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>245</v>
+      </c>
       <c r="H54" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J54" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G55" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G55" s="47" t="s">
+        <v>244</v>
+      </c>
       <c r="H55" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J55" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G56" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G56" s="47" t="s">
+        <v>243</v>
+      </c>
       <c r="H56" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J56" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G57" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G57" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="H57" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J57" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
-        <v>493</v>
+        <v>183</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G58" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>183</v>
+      </c>
       <c r="H58" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J58" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
-        <v>370</v>
+        <v>491</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E59" s="32"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="33"/>
+        <v>437</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G59" s="53" t="s">
+        <v>491</v>
+      </c>
       <c r="H59" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J59" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="25"/>
+        <v>369</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>425</v>
+      </c>
       <c r="C60" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="32"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="33"/>
+        <v>376</v>
+      </c>
+      <c r="E60" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H60" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J60" s="33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>456</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B61" s="25"/>
       <c r="C61" s="37" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>367</v>
+        <v>1</v>
+      </c>
+      <c r="E61" s="52" t="s">
+        <v>534</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G61" s="33"/>
+        <v>536</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H61" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="J61" s="33">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4831,1003 +4834,1201 @@
         <v>344</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G62" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>543</v>
+      </c>
       <c r="H62" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J62" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G63" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>544</v>
+      </c>
       <c r="H63" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J63" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G64" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>168</v>
+      </c>
       <c r="H64" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J64" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
-        <v>458</v>
+        <v>346</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G65" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>167</v>
+      </c>
       <c r="H65" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J65" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>461</v>
-      </c>
       <c r="C66" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G66" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>541</v>
+      </c>
       <c r="H66" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J66" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G67" s="33"/>
+        <v>475</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>542</v>
+      </c>
       <c r="H67" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J67" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="B68" s="25" t="s">
-        <v>464</v>
-      </c>
       <c r="C68" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>367</v>
+        <v>549</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G68" s="33"/>
+        <v>536</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H68" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J68" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
-        <v>26</v>
+        <v>462</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>26</v>
+        <v>462</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>367</v>
+        <v>549</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G69" s="33"/>
+        <v>536</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H69" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J69" s="33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
-        <v>370</v>
+        <v>25</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="33"/>
+        <v>25</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="H70" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J70" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J71" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="D71" s="33" t="s">
+      <c r="B72" s="25"/>
+      <c r="C72" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="D72" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J71" s="33">
+      <c r="E72" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J72" s="33">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>485</v>
-      </c>
-      <c r="D72" s="31" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="D73" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="30" t="s">
-        <v>518</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="J72" s="31">
+      <c r="E73" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="J73" s="31">
         <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="J73" s="33">
-        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D74" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="33"/>
+      <c r="E74" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H74" s="32" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J74" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D75" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="33"/>
+      <c r="E75" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H75" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>529</v>
+        <v>516</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="J75" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D76" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="32"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="33"/>
+      <c r="E76" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H76" s="32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J76" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="32"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="33"/>
+      <c r="E77" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H77" s="32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J77" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D78" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="33"/>
+      <c r="E78" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H78" s="32" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="J78" s="31">
-        <v>1</v>
+        <v>527</v>
+      </c>
+      <c r="J78" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D79" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="32"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="33"/>
+      <c r="E79" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H79" s="32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="J79" s="33">
-        <v>2</v>
+        <v>528</v>
+      </c>
+      <c r="J79" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D80" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="33"/>
+      <c r="E80" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H80" s="32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J80" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D81" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="32"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="33"/>
+      <c r="E81" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H81" s="32" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J81" s="31">
-        <v>1</v>
+        <v>528</v>
+      </c>
+      <c r="J81" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D82" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E82" s="32"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="33"/>
+      <c r="E82" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H82" s="32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J82" s="33">
-        <v>2</v>
+        <v>529</v>
+      </c>
+      <c r="J82" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B83" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="B83" s="25" t="s">
-        <v>406</v>
-      </c>
       <c r="C83" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D83" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="32"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="33"/>
+      <c r="E83" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H83" s="32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J83" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D84" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="32"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="33"/>
+      <c r="E84" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H84" s="32" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="J84" s="31">
-        <v>1</v>
+        <v>529</v>
+      </c>
+      <c r="J84" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D85" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="32"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="33"/>
+      <c r="E85" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H85" s="32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="J85" s="33">
-        <v>2</v>
+        <v>530</v>
+      </c>
+      <c r="J85" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D86" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="32"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="33"/>
+      <c r="E86" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H86" s="32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J86" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D87" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="32"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="33"/>
+      <c r="E87" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H87" s="32" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="J87" s="31">
-        <v>1</v>
+        <v>530</v>
+      </c>
+      <c r="J87" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D88" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="32"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="33"/>
+      <c r="E88" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H88" s="32" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="J88" s="33">
-        <v>2</v>
+        <v>531</v>
+      </c>
+      <c r="J88" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D89" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="32"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="33"/>
+      <c r="E89" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H89" s="32" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J89" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D90" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="33"/>
+      <c r="E90" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H90" s="32" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="J90" s="31">
-        <v>1</v>
+        <v>531</v>
+      </c>
+      <c r="J90" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="32"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="33"/>
+      <c r="E91" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H91" s="32" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="J91" s="33">
-        <v>2</v>
+        <v>532</v>
+      </c>
+      <c r="J91" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D92" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="32"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="33"/>
+      <c r="E92" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H92" s="32" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J92" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D93" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="32"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="33"/>
+      <c r="E93" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H93" s="32" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="J93" s="31">
-        <v>1</v>
+        <v>532</v>
+      </c>
+      <c r="J93" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="32"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="33"/>
+      <c r="E94" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G94" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H94" s="32" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="J94" s="33">
-        <v>2</v>
+        <v>533</v>
+      </c>
+      <c r="J94" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B95" s="25" t="s">
         <v>419</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D95" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="32"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="33"/>
+      <c r="E95" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G95" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H95" s="32" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J95" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E96" s="32"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G96" s="33" t="s">
+        <v>536</v>
+      </c>
       <c r="H96" s="32" t="s">
-        <v>367</v>
+        <v>525</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J96" s="33" t="s">
-        <v>476</v>
+        <v>533</v>
+      </c>
+      <c r="J96" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="35" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B97" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H97" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J97" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="C97" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="E97" s="32"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="33"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
-        <v>506</v>
+        <v>374</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>506</v>
+        <v>376</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>367</v>
+        <v>534</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G98" s="33"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="33"/>
+        <v>536</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H98" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="J98" s="33" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="35" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G99" s="33"/>
       <c r="H99" s="32"/>
@@ -5836,22 +6037,22 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G100" s="33"/>
       <c r="H100" s="32"/>
@@ -5859,76 +6060,74 @@
       <c r="J100" s="33"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
-        <v>507</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G101" s="31"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="31"/>
+      <c r="A101" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G101" s="33"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="33"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G102" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="H102" s="32"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="33"/>
+      <c r="A102" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G102" s="31"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="31"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H103" s="32"/>
       <c r="I103" s="1"/>
@@ -5936,25 +6135,25 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="35" t="s">
-        <v>424</v>
+        <v>19</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>425</v>
+        <v>37</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="H104" s="32"/>
       <c r="I104" s="1"/>
@@ -5962,25 +6161,25 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="35" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G105" s="33" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H105" s="32"/>
       <c r="I105" s="1"/>
@@ -5988,25 +6187,25 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="35" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="H106" s="32"/>
       <c r="I106" s="1"/>
@@ -6014,22 +6213,22 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="35" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G107" s="33" t="s">
         <v>236</v>
@@ -6040,22 +6239,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="35" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G108" s="33" t="s">
         <v>235</v>
@@ -6066,25 +6265,25 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B109" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D109" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="C109" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>438</v>
-      </c>
       <c r="E109" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H109" s="32"/>
       <c r="I109" s="1"/>
@@ -6092,25 +6291,25 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="35" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G110" s="33" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="H110" s="32"/>
       <c r="I110" s="1"/>
@@ -6118,25 +6317,25 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="35" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H111" s="32"/>
       <c r="I111" s="1"/>
@@ -6144,25 +6343,25 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="35" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H112" s="32"/>
       <c r="I112" s="1"/>
@@ -6170,29 +6369,492 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="35" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="H113" s="32"/>
       <c r="I113" s="1"/>
       <c r="J113" s="33"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="H114" s="32"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="33"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="54" t="s">
+        <v>545</v>
+      </c>
+      <c r="B115" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F115" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G115" s="53" t="s">
+        <v>545</v>
+      </c>
+      <c r="H115" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="I115" s="49"/>
+      <c r="J115" s="53"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="B116" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="C116" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="D116" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F116" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G116" s="53" t="s">
+        <v>548</v>
+      </c>
+      <c r="H116" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="I116" s="49"/>
+      <c r="J116" s="53"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="54"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F117" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G117" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="H117" s="52"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="53"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="54"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F118" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G118" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="H118" s="52"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="53"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="54"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="55"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F119" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G119" s="53" t="s">
+        <v>551</v>
+      </c>
+      <c r="H119" s="52"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="53"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="54"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F120" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G120" s="53" t="s">
+        <v>552</v>
+      </c>
+      <c r="H120" s="52"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="53"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="54"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F121" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G121" s="53" t="s">
+        <v>553</v>
+      </c>
+      <c r="H121" s="52"/>
+      <c r="I121" s="49"/>
+      <c r="J121" s="53"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="54"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F122" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G122" s="53" t="s">
+        <v>554</v>
+      </c>
+      <c r="H122" s="52"/>
+      <c r="I122" s="49"/>
+      <c r="J122" s="53"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="54"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F123" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G123" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="H123" s="52"/>
+      <c r="I123" s="49"/>
+      <c r="J123" s="53"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="54"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F124" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G124" s="53" t="s">
+        <v>556</v>
+      </c>
+      <c r="H124" s="52"/>
+      <c r="I124" s="49"/>
+      <c r="J124" s="53"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="54"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F125" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G125" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="H125" s="52"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="53"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="54"/>
+      <c r="B126" s="51"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F126" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G126" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="H126" s="52"/>
+      <c r="I126" s="49"/>
+      <c r="J126" s="53"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="54"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F127" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G127" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="H127" s="52"/>
+      <c r="I127" s="49"/>
+      <c r="J127" s="53"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="54"/>
+      <c r="B128" s="51"/>
+      <c r="C128" s="55"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F128" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G128" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="H128" s="52"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="53"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="54"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F129" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G129" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="H129" s="52"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="53"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="54"/>
+      <c r="B130" s="51"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F130" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G130" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="H130" s="52"/>
+      <c r="I130" s="49"/>
+      <c r="J130" s="53"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="54"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F131" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G131" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="H131" s="52"/>
+      <c r="I131" s="49"/>
+      <c r="J131" s="53"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="54"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F132" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G132" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="H132" s="52"/>
+      <c r="I132" s="49"/>
+      <c r="J132" s="53"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="54"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F133" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G133" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="H133" s="52"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="53"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="54"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F134" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G134" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="H134" s="52"/>
+      <c r="I134" s="49"/>
+      <c r="J134" s="53"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="54"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F135" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G135" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="H135" s="52"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="53"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="54"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="55"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F136" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G136" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="H136" s="52"/>
+      <c r="I136" s="49"/>
+      <c r="J136" s="53"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="54"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="55"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="F137" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G137" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="H137" s="52"/>
+      <c r="I137" s="49"/>
+      <c r="J137" s="53"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G138" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6205,27 +6867,30 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:J1048576">
-    <cfRule type="expression" dxfId="6" priority="25">
+    <cfRule type="expression" dxfId="15" priority="26">
       <formula>$D1="TWCK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="27">
+    <cfRule type="expression" dxfId="14" priority="27">
+      <formula>$D1="TWD"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="28">
       <formula>$D1="CAN-L"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="28">
+    <cfRule type="expression" dxfId="12" priority="29">
       <formula>$D1="CAN-H"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="43">
+    <cfRule type="expression" dxfId="11" priority="44">
       <formula>$D1="KEYSW"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="10" priority="45">
       <formula>$D1="GND"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="45">
+    <cfRule type="expression" dxfId="9" priority="46">
       <formula>$D1="PWR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="26">
-      <formula>$D1="TWD"</formula>
-    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G137">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6261,31 +6926,31 @@
   <sheetData>
     <row r="1" spans="1:16" s="22" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="I1" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>17</v>
@@ -6294,40 +6959,40 @@
         <v>2</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>233</v>
-      </c>
       <c r="P1" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E2" s="7">
         <f t="shared" ref="E2:E33" si="0">CODE(D2)*10000+RIGHT(D2,LEN(D2)-1)</f>
         <v>650000</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" s="13">
         <f t="shared" ref="G2:G33" si="1">CODE(F2)*10000+RIGHT(F2,LEN(F2)-1)</f>
@@ -6335,11 +7000,11 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -6349,92 +7014,92 @@
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" si="0"/>
         <v>650001</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="13">
         <f t="shared" si="1"/>
         <v>680055</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
         <v>650010</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" si="1"/>
         <v>680064</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>650011</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
         <v>680065</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -6442,13 +7107,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
@@ -6459,331 +7124,331 @@
         <v>#VALUE!</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>650002</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>680056</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>650003</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>680057</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>650004</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>680058</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>650005</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>680059</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>650006</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>680060</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>650007</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>680061</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>650008</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>680062</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>650009</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>680063</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>680069</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>680068</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
@@ -6794,86 +7459,86 @@
         <v>#VALUE!</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="1"/>
         <v>680066</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="1"/>
         <v>680067</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" s="7" t="e">
         <f t="shared" si="0"/>
@@ -6886,10 +7551,10 @@
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="7" t="e">
         <f t="shared" si="0"/>
@@ -6902,10 +7567,10 @@
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="7" t="e">
         <f t="shared" si="0"/>
@@ -6918,10 +7583,10 @@
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" s="7" t="e">
         <f t="shared" si="0"/>
@@ -6934,10 +7599,10 @@
     </row>
     <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="7" t="e">
         <f t="shared" si="0"/>
@@ -6950,10 +7615,10 @@
     </row>
     <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E25" s="7" t="e">
         <f t="shared" si="0"/>
@@ -6966,10 +7631,10 @@
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26" s="7" t="e">
         <f t="shared" si="0"/>
@@ -6982,10 +7647,10 @@
     </row>
     <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="7" t="e">
         <f t="shared" si="0"/>
@@ -6998,10 +7663,10 @@
     </row>
     <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="7" t="e">
         <f t="shared" si="0"/>
@@ -7017,13 +7682,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="0"/>
@@ -7034,13 +7699,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -7048,13 +7713,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="0"/>
@@ -7065,21 +7730,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="0"/>
@@ -7090,10 +7755,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7101,13 +7766,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="0"/>
@@ -7118,21 +7783,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="0"/>
@@ -7143,7 +7808,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -7151,13 +7816,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" ref="E34:E65" si="2">CODE(D34)*10000+RIGHT(D34,LEN(D34)-1)</f>
@@ -7168,21 +7833,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="2"/>
@@ -7193,21 +7858,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="2"/>
@@ -7218,7 +7883,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -7226,13 +7891,13 @@
         <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="2"/>
@@ -7243,21 +7908,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="2"/>
@@ -7268,10 +7933,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -7279,13 +7944,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="2"/>
@@ -7298,16 +7963,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="2"/>
@@ -7320,16 +7985,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="2"/>
@@ -7340,7 +8005,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -7348,13 +8013,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="2"/>
@@ -7365,21 +8030,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="2"/>
@@ -7390,21 +8055,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="2"/>
@@ -7415,21 +8080,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="2"/>
@@ -7440,21 +8105,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="2"/>
@@ -7465,21 +8130,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="2"/>
@@ -7490,21 +8155,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="2"/>
@@ -7515,21 +8180,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="2"/>
@@ -7540,21 +8205,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="2"/>
@@ -7565,21 +8230,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="2"/>
@@ -7590,21 +8255,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="2"/>
@@ -7615,21 +8280,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="2"/>
@@ -7640,21 +8305,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="2"/>
@@ -7665,21 +8330,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="2"/>
@@ -7690,21 +8355,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="2"/>
@@ -7715,7 +8380,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -7723,13 +8388,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="2"/>
@@ -7740,10 +8405,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -7751,13 +8416,13 @@
         <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="2"/>
@@ -7768,21 +8433,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="2"/>
@@ -7793,18 +8458,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="2"/>
@@ -7815,49 +8480,49 @@
         <v>#VALUE!</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="2"/>
         <v>680013</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G61" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="2"/>
@@ -7868,21 +8533,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="2"/>
@@ -7893,18 +8558,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="2"/>
@@ -7915,18 +8580,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="2"/>
@@ -7937,18 +8602,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" ref="E66:E97" si="4">CODE(D66)*10000+RIGHT(D66,LEN(D66)-1)</f>
@@ -7959,18 +8624,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="4"/>
@@ -7981,18 +8646,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" si="4"/>
@@ -8003,136 +8668,136 @@
         <v>#VALUE!</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E69" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G69" s="13">
         <f t="shared" si="5"/>
         <v>680000</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E70" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G70" s="13">
         <f t="shared" si="5"/>
         <v>680019</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E71" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G71" s="13">
         <f t="shared" si="5"/>
         <v>680017</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E72" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G72" s="13">
         <f t="shared" si="5"/>
         <v>680015</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E73" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8145,134 +8810,134 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E74" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G74" s="13">
         <f t="shared" si="5"/>
         <v>680021</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E75" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G75" s="13">
         <f t="shared" si="5"/>
         <v>680021</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E76" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G76" s="13">
         <f t="shared" si="5"/>
         <v>680020</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E77" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G77" s="13">
         <f t="shared" si="5"/>
         <v>680020</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E78" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8285,13 +8950,13 @@
     </row>
     <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="4"/>
@@ -8302,21 +8967,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E80" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8329,13 +8994,13 @@
     </row>
     <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="4"/>
@@ -8346,15 +9011,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E82" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8367,125 +9032,125 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E83" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G83" s="13">
         <f t="shared" si="5"/>
         <v>680001</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E84" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G84" s="13">
         <f t="shared" si="5"/>
         <v>680018</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E85" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G85" s="13">
         <f t="shared" si="5"/>
         <v>680016</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E86" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G86" s="13">
         <f t="shared" si="5"/>
         <v>680014</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E87" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8498,7 +9163,7 @@
     </row>
     <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E88" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8511,7 +9176,7 @@
     </row>
     <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E89" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8524,7 +9189,7 @@
     </row>
     <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E90" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8537,7 +9202,7 @@
     </row>
     <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E91" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8550,7 +9215,7 @@
     </row>
     <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E92" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8563,7 +9228,7 @@
     </row>
     <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E93" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8576,7 +9241,7 @@
     </row>
     <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E94" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8589,7 +9254,7 @@
     </row>
     <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E95" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8602,7 +9267,7 @@
     </row>
     <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E96" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8615,7 +9280,7 @@
     </row>
     <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E97" s="7" t="e">
         <f t="shared" si="4"/>
@@ -8628,7 +9293,7 @@
     </row>
     <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E98" s="7" t="e">
         <f t="shared" ref="E98:E105" si="6">CODE(D98)*10000+RIGHT(D98,LEN(D98)-1)</f>
@@ -8641,7 +9306,7 @@
     </row>
     <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E99" s="7" t="e">
         <f t="shared" si="6"/>
@@ -8654,7 +9319,7 @@
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E100" s="7" t="e">
         <f t="shared" si="6"/>
@@ -8667,7 +9332,7 @@
     </row>
     <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E101" s="7" t="e">
         <f t="shared" si="6"/>
@@ -8680,7 +9345,7 @@
     </row>
     <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E102" s="7" t="e">
         <f t="shared" si="6"/>
@@ -8693,7 +9358,7 @@
     </row>
     <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E103" s="7" t="e">
         <f t="shared" si="6"/>
@@ -8706,7 +9371,7 @@
     </row>
     <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E104" s="7" t="e">
         <f t="shared" si="6"/>
@@ -8719,7 +9384,7 @@
     </row>
     <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E105" s="7" t="e">
         <f t="shared" si="6"/>
